--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc20.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc20.xlsx
@@ -247,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,7 +561,7 @@
   <dimension ref="A1:AN244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1699,11 +1699,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
@@ -1824,13 +1824,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1960,8 +1960,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2088,11 +2088,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>238</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.97942386831275718</v>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>1.646090534979424E-2</v>
       </c>
@@ -2353,7 +2353,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2484,7 +2484,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2615,7 +2615,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2746,7 +2746,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>4.11522633744856E-3</v>
       </c>
@@ -3008,7 +3008,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3139,7 +3139,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3270,7 +3270,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3401,7 +3401,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3532,7 +3532,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3663,7 +3663,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3794,7 +3794,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3925,7 +3925,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4056,7 +4056,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4187,7 +4187,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4318,7 +4318,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4449,7 +4449,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4580,7 +4580,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4711,7 +4711,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4835,14 +4835,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4966,14 +4966,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5097,14 +5097,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5228,14 +5228,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5359,14 +5359,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="b">
-        <f t="shared" ref="AC38:AG101" si="12">X38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AC38:AG88" si="12">X38=MAX($X38:$AB38)</f>
         <v>0</v>
       </c>
       <c r="AD38" t="b">
@@ -5489,6 +5489,17 @@
       <c r="AJ38" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -11579,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AC89" t="b">
-        <f t="shared" ref="AC89:AG152" si="21">X89=MAX($X89:$AB89)</f>
+        <f t="shared" ref="AC89:AG139" si="21">X89=MAX($X89:$AB89)</f>
         <v>0</v>
       </c>
       <c r="AD89" t="b">
@@ -17699,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="AC140" t="b">
-        <f t="shared" ref="AC140:AG203" si="30">X140=MAX($X140:$AB140)</f>
+        <f t="shared" ref="AC140:AG190" si="30">X140=MAX($X140:$AB140)</f>
         <v>0</v>
       </c>
       <c r="AD140" t="b">
@@ -23819,7 +23830,7 @@
         <v>0</v>
       </c>
       <c r="AC191" t="b">
-        <f t="shared" ref="AC191:AG244" si="31">X191=MAX($X191:$AB191)</f>
+        <f t="shared" ref="AC191:AG241" si="31">X191=MAX($X191:$AB191)</f>
         <v>0</v>
       </c>
       <c r="AD191" t="b">
